--- a/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.IDH1.MUT.xlsx
+++ b/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.IDH1.MUT.xlsx
@@ -161,7 +161,7 @@
     <t xml:space="preserve">TCGA-AB-2863-03A</t>
   </si>
   <si>
-    <t xml:space="preserve">TCGA-AB-2863-03B_Alq1</t>
+    <t xml:space="preserve">TCGA-AB-2863-03B</t>
   </si>
   <si>
     <t xml:space="preserve">Not DNA Called</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">66</t>
   </si>
   <si>
-    <t xml:space="preserve">TCGA-AB-2863-03D_Alq2</t>
+    <t xml:space="preserve">TCGA-AB-2863-03D</t>
   </si>
   <si>
     <t xml:space="preserve">TCGA-AB-2867</t>
